--- a/src/main/java/externalResources/qaautomation.xlsx
+++ b/src/main/java/externalResources/qaautomation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/src/main/java/externalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B27336-EFAC-B842-B921-F8C18AAD105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C329B260-D6C7-5745-9829-621719D6C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Rest Assured" sheetId="4" r:id="rId2"/>
     <sheet name="Example Series Cast" sheetId="2" r:id="rId3"/>
     <sheet name="Series Cast" sheetId="3" r:id="rId4"/>
+    <sheet name="Experiment" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="262">
   <si>
     <t>Series Cast</t>
   </si>
@@ -1236,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1531,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1737,7 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2910,5 +2911,47 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D11CE2-69F7-8645-9FF8-A9C96AF865D3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/externalResources/qaautomation.xlsx
+++ b/src/main/java/externalResources/qaautomation.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/src/main/java/externalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C329B260-D6C7-5745-9829-621719D6C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5691CDB-0A26-7F42-B1A9-C9BF3A6A80AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -211,6 +211,9 @@
     <t>Condititions/Assertions</t>
   </si>
   <si>
+    <t>tony.knowstheway911@gmail.com</t>
+  </si>
+  <si>
     <t>Kerry Godliman</t>
   </si>
   <si>
@@ -274,7 +277,7 @@
     <t>Tim Plester</t>
   </si>
   <si>
-    <t>Tracy Ann Oberman</t>
+    <t>Tracy-Ann Oberman</t>
   </si>
   <si>
     <t>Matt Beauman-Jones</t>
@@ -352,12 +355,12 @@
     <t>James Gault</t>
   </si>
   <si>
+    <t>Nicky B</t>
+  </si>
+  <si>
     <t>Nancy Sullivan</t>
   </si>
   <si>
-    <t>Nicky B</t>
-  </si>
-  <si>
     <t>Megan Heffernan</t>
   </si>
   <si>
@@ -466,18 +469,18 @@
     <t>Ruth Clarson-Horrocks</t>
   </si>
   <si>
+    <t>Marc Hockley</t>
+  </si>
+  <si>
     <t>A.k. Steppa</t>
   </si>
   <si>
-    <t>Marc Hockley</t>
+    <t>Gleb Smatko</t>
   </si>
   <si>
     <t>Ross Owen</t>
   </si>
   <si>
-    <t>Gleb Smatko</t>
-  </si>
-  <si>
     <t>Lisa</t>
   </si>
   <si>
@@ -616,12 +619,12 @@
     <t>Emma's Colleague</t>
   </si>
   <si>
+    <t>Fat Woman</t>
+  </si>
+  <si>
     <t>Café Waitress</t>
   </si>
   <si>
-    <t>Fat Woman</t>
-  </si>
-  <si>
     <t>Breast Milk Woman</t>
   </si>
   <si>
@@ -721,30 +724,30 @@
     <t>Office Passerby</t>
   </si>
   <si>
+    <t>Passer by</t>
+  </si>
+  <si>
     <t>Checkout Assistant</t>
   </si>
   <si>
-    <t>Passer by</t>
-  </si>
-  <si>
     <t>Passerby</t>
   </si>
   <si>
     <t>Pub Patron</t>
   </si>
   <si>
+    <t>Wedding Guest</t>
+  </si>
+  <si>
     <t>Wedding DJ</t>
   </si>
   <si>
-    <t>Wedding Guest</t>
+    <t>Cafe Patron</t>
   </si>
   <si>
     <t>Man in Cafe</t>
   </si>
   <si>
-    <t>Cafe Patron</t>
-  </si>
-  <si>
     <t>18 episodes, 2019-2022</t>
   </si>
   <si>
@@ -821,15 +824,13 @@
   </si>
   <si>
     <t>1 episode, 2020</t>
-  </si>
-  <si>
-    <t>tony.knowstheway911@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1243,9 +1244,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="48.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1278,7 +1279,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1349,13 +1350,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="36.5" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.1640625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="47.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="2" width="36.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="29.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="51.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="51.33203125" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -1536,9 +1537,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -1737,14 +1738,14 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -1765,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1773,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1784,10 +1785,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1795,10 +1796,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1806,1019 +1807,1019 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C70" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2917,17 +2918,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D11CE2-69F7-8645-9FF8-A9C96AF865D3}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2947,6 +2948,91 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/java/externalResources/qaautomation.xlsx
+++ b/src/main/java/externalResources/qaautomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/src/main/java/externalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5691CDB-0A26-7F42-B1A9-C9BF3A6A80AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD8BF3-3AF9-D941-BFEA-A35FC498667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="259">
   <si>
     <t>Series Cast</t>
   </si>
@@ -214,616 +214,607 @@
     <t>tony.knowstheway911@gmail.com</t>
   </si>
   <si>
+    <t>18 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Kerry Godliman</t>
   </si>
   <si>
+    <t>Lisa</t>
+  </si>
+  <si>
     <t>Ashley Jensen</t>
   </si>
   <si>
+    <t>Nurse / ...</t>
+  </si>
+  <si>
     <t>Anti</t>
   </si>
   <si>
+    <t>Brandy the Dog</t>
+  </si>
+  <si>
     <t>Michelle Greenidge</t>
   </si>
   <si>
+    <t>Valerie</t>
+  </si>
+  <si>
+    <t>17 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Joe Wilkinson</t>
   </si>
   <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>16 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Penelope Wilton</t>
   </si>
   <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>15 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Jo Hartley</t>
   </si>
   <si>
+    <t>June</t>
+  </si>
+  <si>
     <t>David Earl</t>
   </si>
   <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t>David Bradley</t>
   </si>
   <si>
+    <t>Tony's Dad</t>
+  </si>
+  <si>
+    <t>14 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Ethan Lawrence</t>
   </si>
   <si>
+    <t>James / ...</t>
+  </si>
+  <si>
     <t>Mandeep Dhillon</t>
   </si>
   <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>12 episodes, 2019-2020</t>
+  </si>
+  <si>
     <t>Paul Kaye</t>
   </si>
   <si>
+    <t>Psychiatrist</t>
+  </si>
+  <si>
     <t>Tommy Finnegan</t>
   </si>
   <si>
+    <t>George Braden / ...</t>
+  </si>
+  <si>
+    <t>12 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Roisin Conaty</t>
   </si>
   <si>
+    <t>Roxy</t>
+  </si>
+  <si>
+    <t>10 episodes, 2019-2020</t>
+  </si>
+  <si>
     <t>Laura Patch</t>
   </si>
   <si>
+    <t>Jill Braden / ...</t>
+  </si>
+  <si>
+    <t>10 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Kamran Kiani</t>
   </si>
   <si>
+    <t>Kaldi</t>
+  </si>
+  <si>
     <t>Colin Hoult</t>
   </si>
   <si>
+    <t>Ken Otley / ...</t>
+  </si>
+  <si>
+    <t>9 episodes, 2020-2022</t>
+  </si>
+  <si>
     <t>Thomas Bastable</t>
   </si>
   <si>
+    <t>Robbie</t>
+  </si>
+  <si>
+    <t>7 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Kath Hughes</t>
   </si>
   <si>
+    <t>Coleen</t>
+  </si>
+  <si>
+    <t>6 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Peter Egan</t>
   </si>
   <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>6 episodes, 2020-2022</t>
+  </si>
+  <si>
     <t>Tim Plester</t>
   </si>
   <si>
+    <t>Julian Kane / ...</t>
+  </si>
+  <si>
+    <t>5 episodes, 2019</t>
+  </si>
+  <si>
     <t>Tracy-Ann Oberman</t>
   </si>
   <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>5 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Matt Beauman-Jones</t>
   </si>
   <si>
+    <t>Tambury Gazette Staff</t>
+  </si>
+  <si>
+    <t>1 episode, 2022</t>
+  </si>
+  <si>
     <t>Dave Hill</t>
   </si>
   <si>
+    <t>Old Man in Care Home</t>
+  </si>
+  <si>
+    <t>4 episodes, 2022</t>
+  </si>
+  <si>
     <t>Kate Robbins</t>
   </si>
   <si>
+    <t>Penny Spencer-Wright</t>
+  </si>
+  <si>
+    <t>3 episodes, 2022</t>
+  </si>
+  <si>
     <t>Andrew Brooke</t>
   </si>
   <si>
+    <t>Ratty</t>
+  </si>
+  <si>
+    <t>3 episodes, 2020-2022</t>
+  </si>
+  <si>
     <t>Tom Bennett</t>
   </si>
   <si>
+    <t>The Nonce</t>
+  </si>
+  <si>
     <t>Bill Ward</t>
   </si>
   <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>3 episodes, 2020</t>
+  </si>
+  <si>
     <t>Steve Brody</t>
   </si>
   <si>
+    <t>Geoff</t>
+  </si>
+  <si>
+    <t>2 episodes, 2019-2022</t>
+  </si>
+  <si>
     <t>Linda Broughton</t>
   </si>
   <si>
+    <t>Conned Old Lady</t>
+  </si>
+  <si>
+    <t>2 episodes, 2022</t>
+  </si>
+  <si>
     <t>Kayla Meikle</t>
   </si>
   <si>
+    <t>Nurse 2</t>
+  </si>
+  <si>
+    <t>2 episodes, 2019</t>
+  </si>
+  <si>
     <t>Wendy Albiston</t>
   </si>
   <si>
+    <t>Brian's Ex Wife</t>
+  </si>
+  <si>
     <t>Steve Speirs</t>
   </si>
   <si>
+    <t>Dog Waste Man</t>
+  </si>
+  <si>
+    <t>2 episodes, 2020-2022</t>
+  </si>
+  <si>
     <t>Ricky Grover</t>
   </si>
   <si>
+    <t>Micky the Gypsy</t>
+  </si>
+  <si>
     <t>Ben Hull</t>
   </si>
   <si>
+    <t>Jack</t>
+  </si>
+  <si>
     <t>Robert Woodhall</t>
   </si>
   <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>1 episode, 2020-2022</t>
+  </si>
+  <si>
     <t>Annette Crosbie</t>
   </si>
   <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>1 episode, 2020</t>
+  </si>
+  <si>
     <t>Ninette Finch</t>
   </si>
   <si>
+    <t>Newsagent</t>
+  </si>
+  <si>
     <t>Daniel Copeland</t>
   </si>
   <si>
+    <t>Man in Park</t>
+  </si>
+  <si>
     <t>Adrian McLoughlin</t>
   </si>
   <si>
+    <t>5 Card Man</t>
+  </si>
+  <si>
     <t>Alexander Kirk</t>
   </si>
   <si>
+    <t>Stain Man</t>
+  </si>
+  <si>
     <t>Tim Fitzhigham</t>
   </si>
   <si>
+    <t>Waiter</t>
+  </si>
+  <si>
     <t>Tim Key</t>
   </si>
   <si>
+    <t>Rude Date</t>
+  </si>
+  <si>
     <t>Michael Spicer</t>
   </si>
   <si>
+    <t>Ben</t>
+  </si>
+  <si>
     <t>Sean McLoughlin</t>
   </si>
   <si>
+    <t>Comedian</t>
+  </si>
+  <si>
     <t>Elsie Fallon</t>
   </si>
   <si>
+    <t>Emma's Colleague</t>
+  </si>
+  <si>
     <t>James Gault</t>
   </si>
   <si>
     <t>Nicky B</t>
   </si>
   <si>
+    <t>Fat Woman</t>
+  </si>
+  <si>
     <t>Nancy Sullivan</t>
   </si>
   <si>
+    <t>Café Waitress</t>
+  </si>
+  <si>
     <t>Megan Heffernan</t>
   </si>
   <si>
+    <t>Breast Milk Woman</t>
+  </si>
+  <si>
     <t>Seb Cardinal</t>
   </si>
   <si>
+    <t>Yoga Instructor</t>
+  </si>
+  <si>
     <t>Colin Farrell</t>
   </si>
   <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t>Nikhil Parmar</t>
   </si>
   <si>
+    <t>Charity Collector</t>
+  </si>
+  <si>
     <t>Dan Li</t>
   </si>
   <si>
+    <t>Homeless Man</t>
+  </si>
+  <si>
     <t>Brendan Howley</t>
   </si>
   <si>
+    <t>Shop Assistant</t>
+  </si>
+  <si>
     <t>Beth Mullen</t>
   </si>
   <si>
+    <t>Baby Hitler's Mum</t>
+  </si>
+  <si>
     <t>Ewen MacIntosh</t>
   </si>
   <si>
+    <t>Buffet Man</t>
+  </si>
+  <si>
     <t>Jo Enright</t>
   </si>
   <si>
+    <t>Vera</t>
+  </si>
+  <si>
     <t>Ann Penfold</t>
   </si>
   <si>
+    <t>Betty</t>
+  </si>
+  <si>
     <t>Islam Bouakkaz</t>
   </si>
   <si>
+    <t>Mugger</t>
+  </si>
+  <si>
     <t>Mark Weinman</t>
   </si>
   <si>
+    <t>Baby Hitler's Dad</t>
+  </si>
+  <si>
     <t>Tom Andrews</t>
   </si>
   <si>
+    <t>Man with Baby</t>
+  </si>
+  <si>
     <t>Gillian Axtell</t>
   </si>
   <si>
+    <t>Psych Receptionist</t>
+  </si>
+  <si>
     <t>Holli Dempsey</t>
   </si>
   <si>
+    <t>Plastic Surgery Woman</t>
+  </si>
+  <si>
     <t>Toby Foster</t>
   </si>
   <si>
+    <t>Dennis</t>
+  </si>
+  <si>
     <t>Graham Dickson</t>
   </si>
   <si>
+    <t>Charles</t>
+  </si>
+  <si>
     <t>Zak Douglas</t>
   </si>
   <si>
+    <t>Estate Agent</t>
+  </si>
+  <si>
     <t>Julia Dearden</t>
   </si>
   <si>
+    <t>Nun</t>
+  </si>
+  <si>
     <t>Lucy Speed</t>
   </si>
   <si>
+    <t>Tracy</t>
+  </si>
+  <si>
     <t>Kenneth Collard</t>
   </si>
   <si>
+    <t>Landlord</t>
+  </si>
+  <si>
     <t>Grace Wood</t>
   </si>
   <si>
+    <t>Daughter</t>
+  </si>
+  <si>
     <t>Yvonne Edgell</t>
   </si>
   <si>
+    <t>Cat Woman</t>
+  </si>
+  <si>
     <t>Marc Cass</t>
   </si>
   <si>
+    <t>Bad Driver</t>
+  </si>
+  <si>
     <t>Dan Mersh</t>
   </si>
   <si>
+    <t>Vicar</t>
+  </si>
+  <si>
     <t>Yasmin Wilde</t>
   </si>
   <si>
+    <t>Dog Handler</t>
+  </si>
+  <si>
     <t>Amelie Bea Smith</t>
   </si>
   <si>
     <t>Sophie Fletcher</t>
   </si>
   <si>
+    <t>Woman in Pub</t>
+  </si>
+  <si>
     <t>Isaac Vincent-Norgate</t>
   </si>
   <si>
+    <t>Little Boy in Hospice</t>
+  </si>
+  <si>
     <t>Darcie Smith</t>
   </si>
   <si>
+    <t>Milly</t>
+  </si>
+  <si>
     <t>Cole Anderson-James</t>
   </si>
   <si>
     <t>Jonathan Addis</t>
   </si>
   <si>
+    <t>Comedy Club Guest</t>
+  </si>
+  <si>
     <t>Andy Figueira</t>
   </si>
   <si>
+    <t>Drug Dealer</t>
+  </si>
+  <si>
     <t>Richie Lawrie</t>
   </si>
   <si>
+    <t>Child Guardian</t>
+  </si>
+  <si>
     <t>Ken Byrd</t>
   </si>
   <si>
+    <t>Passerby (uncredited)</t>
+  </si>
+  <si>
     <t>Ruth Clarson-Horrocks</t>
   </si>
   <si>
+    <t>Pub Patron (uncredited)</t>
+  </si>
+  <si>
     <t>Marc Hockley</t>
   </si>
   <si>
+    <t>Wedding Guest (uncredited)</t>
+  </si>
+  <si>
     <t>A.k. Steppa</t>
   </si>
   <si>
+    <t>Wedding DJ (uncredited)</t>
+  </si>
+  <si>
     <t>Gleb Smatko</t>
   </si>
   <si>
+    <t>Cafe Patron (uncredited)</t>
+  </si>
+  <si>
     <t>Ross Owen</t>
   </si>
   <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>Brandy the Dog</t>
-  </si>
-  <si>
-    <t>Valerie</t>
-  </si>
-  <si>
-    <t>Pat</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Tony's Dad</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Sandy</t>
-  </si>
-  <si>
-    <t>Psychiatrist</t>
-  </si>
-  <si>
-    <t>George Braden</t>
-  </si>
-  <si>
-    <t>Roxy</t>
-  </si>
-  <si>
-    <t>Jill Braden</t>
-  </si>
-  <si>
-    <t>Kaldi</t>
-  </si>
-  <si>
-    <t>Ken Otley</t>
-  </si>
-  <si>
-    <t>Robbie</t>
-  </si>
-  <si>
-    <t>Coleen</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Julian Kane</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Tambury Gazette Staff</t>
-  </si>
-  <si>
-    <t>Old Man in Care Home</t>
-  </si>
-  <si>
-    <t>Penny Spencer-Wright</t>
-  </si>
-  <si>
-    <t>Ratty</t>
-  </si>
-  <si>
-    <t>The Nonce</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Geoff</t>
-  </si>
-  <si>
-    <t>Conned Old Lady</t>
-  </si>
-  <si>
-    <t>Nurse 2</t>
-  </si>
-  <si>
-    <t>Brian's Ex Wife</t>
-  </si>
-  <si>
-    <t>Dog Waste Man</t>
-  </si>
-  <si>
-    <t>Micky the Gypsy</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Colin</t>
-  </si>
-  <si>
-    <t>Rosemary</t>
-  </si>
-  <si>
-    <t>Newsagent</t>
-  </si>
-  <si>
-    <t>Man in Park</t>
-  </si>
-  <si>
-    <t>5 Card Man</t>
-  </si>
-  <si>
-    <t>Stain Man</t>
-  </si>
-  <si>
-    <t>Waiter</t>
-  </si>
-  <si>
-    <t>Rude Date</t>
-  </si>
-  <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Comedian</t>
-  </si>
-  <si>
-    <t>Emma's Colleague</t>
-  </si>
-  <si>
-    <t>Fat Woman</t>
-  </si>
-  <si>
-    <t>Café Waitress</t>
-  </si>
-  <si>
-    <t>Breast Milk Woman</t>
-  </si>
-  <si>
-    <t>Yoga Instructor</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Charity Collector</t>
-  </si>
-  <si>
-    <t>Homeless Man</t>
-  </si>
-  <si>
-    <t>Shop Assistant</t>
-  </si>
-  <si>
-    <t>Baby Hitler's Mum</t>
-  </si>
-  <si>
-    <t>Buffet Man</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>Betty</t>
-  </si>
-  <si>
-    <t>Mugger</t>
-  </si>
-  <si>
-    <t>Baby Hitler's Dad</t>
-  </si>
-  <si>
-    <t>Man with Baby</t>
-  </si>
-  <si>
-    <t>Psych Receptionist</t>
-  </si>
-  <si>
-    <t>Plastic Surgery Woman</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Estate Agent</t>
-  </si>
-  <si>
-    <t>Nun</t>
-  </si>
-  <si>
-    <t>Tracy</t>
-  </si>
-  <si>
-    <t>Landlord</t>
-  </si>
-  <si>
-    <t>Daughter</t>
-  </si>
-  <si>
-    <t>Cat Woman</t>
-  </si>
-  <si>
-    <t>Bad Driver</t>
-  </si>
-  <si>
-    <t>Vicar</t>
-  </si>
-  <si>
-    <t>Dog Handler</t>
-  </si>
-  <si>
-    <t>Woman in Pub</t>
-  </si>
-  <si>
-    <t>Little Boy in Hospice</t>
-  </si>
-  <si>
-    <t>Milly</t>
-  </si>
-  <si>
-    <t>Comedy Club Guest</t>
-  </si>
-  <si>
-    <t>Drug Dealer</t>
-  </si>
-  <si>
-    <t>Child Guardian</t>
-  </si>
-  <si>
-    <t>Office Passerby</t>
-  </si>
-  <si>
-    <t>Passer by</t>
-  </si>
-  <si>
-    <t>Checkout Assistant</t>
-  </si>
-  <si>
-    <t>Passerby</t>
-  </si>
-  <si>
-    <t>Pub Patron</t>
-  </si>
-  <si>
-    <t>Wedding Guest</t>
-  </si>
-  <si>
-    <t>Wedding DJ</t>
-  </si>
-  <si>
-    <t>Cafe Patron</t>
-  </si>
-  <si>
-    <t>Man in Cafe</t>
-  </si>
-  <si>
-    <t>18 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>17 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>16 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>15 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>14 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>12 episodes, 2019-2020</t>
-  </si>
-  <si>
-    <t>12 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>10 episodes, 2019-2020</t>
-  </si>
-  <si>
-    <t>10 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>9 episodes, 2020-2022</t>
-  </si>
-  <si>
-    <t>7 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>6 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>6 episodes, 2020-2022</t>
-  </si>
-  <si>
-    <t>5 episodes, 2019</t>
-  </si>
-  <si>
-    <t>5 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>1 episode, 2022</t>
-  </si>
-  <si>
-    <t>4 episodes, 2022</t>
-  </si>
-  <si>
-    <t>3 episodes, 2022</t>
-  </si>
-  <si>
-    <t>3 episodes, 2020-2022</t>
-  </si>
-  <si>
-    <t>3 episodes, 2020</t>
-  </si>
-  <si>
-    <t>2 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>2 episodes, 2022</t>
-  </si>
-  <si>
-    <t>2 episodes, 2019</t>
-  </si>
-  <si>
-    <t>2 episodes, 2020-2022</t>
-  </si>
-  <si>
-    <t>1 episode, 2020-2022</t>
-  </si>
-  <si>
-    <t>1 episode, 2020</t>
+    <t>Man in Cafe (uncredited)</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1523,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1737,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1774,7 +1765,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1785,7 +1776,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -1796,7 +1787,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1807,422 +1798,422 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>253</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -2230,10 +2221,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -2241,10 +2232,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -2252,10 +2243,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -2263,10 +2254,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -2274,32 +2265,32 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -2307,32 +2298,32 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2340,10 +2331,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -2351,10 +2342,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
@@ -2362,32 +2353,32 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2395,10 +2386,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -2406,10 +2397,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2417,10 +2408,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -2428,43 +2419,43 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -2472,10 +2463,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -2483,18 +2474,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" t="s">
         <v>119</v>
-      </c>
-      <c r="B68" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s">
         <v>208</v>
@@ -2505,54 +2496,54 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -2560,142 +2551,142 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C79" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C84" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -2703,10 +2694,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -2714,13 +2705,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
@@ -2728,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -2739,7 +2730,7 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
@@ -2750,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -2758,10 +2749,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -2769,57 +2760,57 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="C98" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2920,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D11CE2-69F7-8645-9FF8-A9C96AF865D3}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/java/externalResources/qaautomation.xlsx
+++ b/src/main/java/externalResources/qaautomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/src/main/java/externalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD8BF3-3AF9-D941-BFEA-A35FC498667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F06E744-3AFF-9E4D-BE75-92D78CD35E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="259">
   <si>
     <t>Series Cast</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Condititions/Assertions</t>
   </si>
   <si>
-    <t>tony.knowstheway911@gmail.com</t>
-  </si>
-  <si>
     <t>18 episodes, 2019-2022</t>
   </si>
   <si>
@@ -815,6 +812,9 @@
   </si>
   <si>
     <t>Man in Cafe (uncredited)</t>
+  </si>
+  <si>
+    <t>tony.knowstheway9229@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1270,7 +1270,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1757,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1765,10 +1765,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1776,10 +1776,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1787,10 +1787,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1798,923 +1798,923 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>77</v>
       </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>88</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>91</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>94</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>99</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>100</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>102</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>103</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>114</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>120</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>123</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>124</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>127</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>129</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>130</v>
       </c>
-      <c r="C33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>131</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>132</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>134</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>135</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>138</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>140</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>141</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>143</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>145</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>146</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>148</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>149</v>
       </c>
-      <c r="C40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>150</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>151</v>
       </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>152</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>153</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>155</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>156</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>158</v>
-      </c>
-      <c r="B44" t="s">
-        <v>159</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
         <v>160</v>
-      </c>
-      <c r="B45" t="s">
-        <v>161</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
         <v>162</v>
-      </c>
-      <c r="B46" t="s">
-        <v>163</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" t="s">
         <v>164</v>
-      </c>
-      <c r="B47" t="s">
-        <v>165</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
         <v>166</v>
-      </c>
-      <c r="B48" t="s">
-        <v>167</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
         <v>168</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>169</v>
       </c>
-      <c r="C49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>170</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>171</v>
       </c>
-      <c r="C50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>172</v>
-      </c>
-      <c r="B51" t="s">
-        <v>173</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
         <v>174</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>175</v>
       </c>
-      <c r="C52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>176</v>
       </c>
-      <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>177</v>
-      </c>
-      <c r="B54" t="s">
-        <v>178</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
         <v>179</v>
-      </c>
-      <c r="B55" t="s">
-        <v>180</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" t="s">
         <v>181</v>
-      </c>
-      <c r="B56" t="s">
-        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
         <v>183</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>184</v>
       </c>
-      <c r="C57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>185</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>186</v>
       </c>
-      <c r="C58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>187</v>
-      </c>
-      <c r="B59" t="s">
-        <v>188</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" t="s">
         <v>189</v>
-      </c>
-      <c r="B60" t="s">
-        <v>190</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" t="s">
         <v>191</v>
-      </c>
-      <c r="B61" t="s">
-        <v>192</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" t="s">
         <v>193</v>
-      </c>
-      <c r="B62" t="s">
-        <v>194</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
         <v>195</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>196</v>
       </c>
-      <c r="C63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>197</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>198</v>
       </c>
-      <c r="C64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>199</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>200</v>
       </c>
-      <c r="C65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
         <v>201</v>
-      </c>
-      <c r="B66" t="s">
-        <v>202</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" t="s">
         <v>203</v>
-      </c>
-      <c r="B67" t="s">
-        <v>204</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" t="s">
         <v>205</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>206</v>
       </c>
-      <c r="C68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>207</v>
-      </c>
-      <c r="B69" t="s">
-        <v>208</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" t="s">
         <v>209</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>210</v>
       </c>
-      <c r="C70" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>211</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>212</v>
       </c>
-      <c r="C71" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>214</v>
       </c>
-      <c r="C72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>215</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>216</v>
       </c>
-      <c r="C73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>217</v>
-      </c>
-      <c r="B74" t="s">
-        <v>218</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
         <v>219</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>220</v>
       </c>
-      <c r="C75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>221</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>222</v>
       </c>
-      <c r="C76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>223</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>224</v>
       </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>225</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>226</v>
       </c>
-      <c r="C78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>227</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>228</v>
       </c>
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
         <v>229</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>230</v>
       </c>
-      <c r="C80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>231</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>232</v>
       </c>
-      <c r="C81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>233</v>
       </c>
-      <c r="B82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>234</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>235</v>
       </c>
-      <c r="C83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
         <v>236</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>237</v>
       </c>
-      <c r="C84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>238</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>239</v>
       </c>
-      <c r="C85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>240</v>
       </c>
-      <c r="B86" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
         <v>241</v>
-      </c>
-      <c r="B87" t="s">
-        <v>242</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" t="s">
         <v>243</v>
-      </c>
-      <c r="B88" t="s">
-        <v>244</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" t="s">
         <v>245</v>
       </c>
-      <c r="B89" t="s">
-        <v>246</v>
-      </c>
       <c r="C89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2747,70 +2747,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" t="s">
         <v>247</v>
-      </c>
-      <c r="B93" t="s">
-        <v>248</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" t="s">
         <v>249</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>250</v>
       </c>
-      <c r="C94" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
         <v>251</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>252</v>
       </c>
-      <c r="C95" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
         <v>253</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>254</v>
       </c>
-      <c r="C96" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
         <v>255</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>256</v>
       </c>
-      <c r="C97" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>257</v>
       </c>
-      <c r="B98" t="s">
-        <v>258</v>
-      </c>
       <c r="C98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">

--- a/src/main/java/externalResources/qaautomation.xlsx
+++ b/src/main/java/externalResources/qaautomation.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/src/main/java/externalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F06E744-3AFF-9E4D-BE75-92D78CD35E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD0972-1817-944A-904B-877C7EA56A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="259">
   <si>
     <t>Series Cast</t>
   </si>
@@ -814,14 +814,13 @@
     <t>Man in Cafe (uncredited)</t>
   </si>
   <si>
-    <t>tony.knowstheway9229@gmail.com</t>
+    <t>tony.knowstheway9449@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1235,9 +1234,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="48.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1341,13 +1340,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="47.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="11.0" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="2" width="36.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="29.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="51.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="51.33203125" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="47.1640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="36.5" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.1640625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -1528,9 +1527,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -1734,9 +1733,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2917,9 +2916,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">

--- a/src/main/java/externalResources/qaautomation.xlsx
+++ b/src/main/java/externalResources/qaautomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/src/main/java/externalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD0972-1817-944A-904B-877C7EA56A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98254F4A-0AC9-2241-A446-3999EA1496E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,7 +814,7 @@
     <t>Man in Cafe (uncredited)</t>
   </si>
   <si>
-    <t>tony.knowstheway9449@gmail.com</t>
+    <t>tony.knowstheway99994@gmail.com</t>
   </si>
 </sst>
 </file>
